--- a/data/save_data/2022/zeuch_t. j..xlsx
+++ b/data/save_data/2022/zeuch_t. j..xlsx
@@ -502,7 +502,7 @@
         <v>-2</v>
       </c>
       <c r="G2" t="n">
-        <v>13</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
         <v>3</v>
@@ -536,7 +536,7 @@
         <v>-2</v>
       </c>
       <c r="G3" t="n">
-        <v>16</v>
+        <v>1</v>
       </c>
       <c r="H3" t="n">
         <v>5</v>
@@ -570,7 +570,7 @@
         <v>-4</v>
       </c>
       <c r="G4" t="n">
-        <v>28</v>
+        <v>4</v>
       </c>
       <c r="H4" t="n">
         <v>4</v>

--- a/data/save_data/2022/zeuch_t. j..xlsx
+++ b/data/save_data/2022/zeuch_t. j..xlsx
@@ -451,12 +451,12 @@
       </c>
       <c r="E1" s="1" t="inlineStr">
         <is>
-          <t>dS0</t>
+          <t>dSF</t>
         </is>
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
-          <t>dSF</t>
+          <t>d2S</t>
         </is>
       </c>
       <c r="G1" s="1" t="inlineStr">
@@ -496,7 +496,7 @@
         <v>81</v>
       </c>
       <c r="E2" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F2" t="n">
         <v>-2</v>
@@ -530,7 +530,7 @@
         <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>-2</v>
       </c>
       <c r="F3" t="n">
         <v>-2</v>
@@ -564,7 +564,7 @@
         <v>91</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>-4</v>
       </c>
       <c r="F4" t="n">
         <v>-4</v>
